--- a/TestPackCamp1.xlsx
+++ b/TestPackCamp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -77,6 +77,36 @@
   </x:si>
   <x:si>
     <x:t>User should be able to view the Campaign Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_4.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete Campaign</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Campaign tab,  and select the existing  Campaign to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Campaign Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on to the Delete to Delete the Campaign</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Campaign</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Confirm / OK to delete the  Campaign</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the Campaign is deleted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -160,8 +190,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K3" totalsRowShown="0">
-  <x:autoFilter ref="A1:K3"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K6" totalsRowShown="0">
+  <x:autoFilter ref="A1:K6"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -467,7 +497,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K3"/>
+  <x:dimension ref="A1:K6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -475,12 +505,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="16.700625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="18.130625000000002" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="47.130625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="46.550625000000004" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="64.980625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="95.130625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
@@ -567,6 +597,71 @@
       <x:c r="J3" s="0" t="s"/>
       <x:c r="K3" s="0" t="s"/>
     </x:row>
+    <x:row r="4" spans="1:11">
+      <x:c r="A4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s"/>
+      <x:c r="F4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s"/>
+      <x:c r="K4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s"/>
+      <x:c r="F5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s"/>
+      <x:c r="K5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+      <x:c r="K6" s="0" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
